--- a/Timelines/Timeline + Dates.xlsx
+++ b/Timelines/Timeline + Dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlantictu-my.sharepoint.com/personal/l00172671_atu_ie/Documents/Year 4/Final-Year-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atlantictu-my.sharepoint.com/personal/l00172671_atu_ie/Documents/Year 4/Final-Year-Project/Timelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{77A51AEB-FFFC-4D5F-A7B9-E6DD7D4BCDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50F3BC6B-E831-467A-BF38-7AEBA4B4819B}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{77A51AEB-FFFC-4D5F-A7B9-E6DD7D4BCDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6901CE19-9C2C-488A-A9DD-0A3C877DDF5D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{56AA04E3-C569-48A6-94BD-27F302EEA038}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56AA04E3-C569-48A6-94BD-27F302EEA038}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Week 1</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Worked on UML Diagrams for S4 of Technical Report</t>
+  </si>
+  <si>
+    <t>Worked on the Technical Report - Section 4     Ethics Talk</t>
   </si>
 </sst>
 </file>
@@ -530,23 +533,24 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -597,12 +601,14 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -617,7 +623,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -632,7 +638,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -651,7 +657,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -666,7 +672,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -683,12 +689,12 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -729,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -744,7 +750,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -759,7 +765,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -774,7 +780,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -789,7 +795,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -804,7 +810,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -819,7 +825,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -837,6 +843,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
